--- a/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31595</v>
+        <v>31596</v>
       </c>
       <c r="D57" t="n">
         <v>6017</v>
       </c>
       <c r="E57" t="n">
-        <v>162415330</v>
+        <v>162615330</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18876</v>
+        <v>18880</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75305211</v>
+        <v>75348959</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16941</v>
+        <v>16946</v>
       </c>
       <c r="D93" t="n">
         <v>2945</v>
       </c>
       <c r="E93" t="n">
-        <v>50660115</v>
+        <v>50673087</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>29544</v>
+        <v>29545</v>
       </c>
       <c r="D96" t="n">
         <v>3814</v>
       </c>
       <c r="E96" t="n">
-        <v>56437349</v>
+        <v>56437589</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6298</v>
+        <v>6300</v>
       </c>
       <c r="D98" t="n">
         <v>911</v>
       </c>
       <c r="E98" t="n">
-        <v>19477128</v>
+        <v>19499128</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81809</v>
+        <v>81810</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436715276</v>
+        <v>436757089</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306367</v>
+        <v>1306372</v>
       </c>
       <c r="D121" t="n">
         <v>220387</v>
       </c>
       <c r="E121" t="n">
-        <v>2275400575</v>
+        <v>2275411864</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633731</v>
+        <v>633749</v>
       </c>
       <c r="D129" t="n">
         <v>104970</v>
       </c>
       <c r="E129" t="n">
-        <v>3433994795</v>
+        <v>3434716128</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585974</v>
+        <v>585997</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3471577332</v>
+        <v>3472457973</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26702</v>
+        <v>26705</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144377972</v>
+        <v>144407972</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236835</v>
+        <v>236836</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1189990205</v>
+        <v>1189991300</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>100471</v>
+        <v>100472</v>
       </c>
       <c r="D189" t="n">
         <v>18353</v>
       </c>
       <c r="E189" t="n">
-        <v>556436057</v>
+        <v>556467136</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>595494</v>
+        <v>595497</v>
       </c>
       <c r="D196" t="n">
         <v>127119</v>
       </c>
       <c r="E196" t="n">
-        <v>983994550</v>
+        <v>984000022</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230259</v>
+        <v>230261</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408741247</v>
+        <v>408757751</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283323</v>
+        <v>283324</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438433147</v>
+        <v>1438438825</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
